--- a/document/dbmv_db.xlsx
+++ b/document/dbmv_db.xlsx
@@ -60,9 +60,6 @@
     <t>CharField</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>默认值</t>
   </si>
   <si>
@@ -254,15 +251,19 @@
     <t>BooleanField</t>
   </si>
   <si>
-    <t>用户表（dbmv_user(admin)）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>电影热映表(HotMovie)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>形式分类Movie_form</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharField</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表（dbmv_user(admin)）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -409,12 +410,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,18 +435,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -740,7 +741,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
@@ -762,15 +763,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -825,19 +826,19 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -857,19 +858,19 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -879,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -894,10 +895,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -909,10 +910,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -921,7 +922,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -931,25 +932,25 @@
       <c r="G12" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="A15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="48.6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
@@ -959,49 +960,49 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="O16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="P16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="64.8" x14ac:dyDescent="0.4">
@@ -1009,52 +1010,52 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="O17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="Q17" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="64.8" x14ac:dyDescent="0.4">
@@ -1065,13 +1066,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
@@ -1089,19 +1090,19 @@
         <v>13</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>13</v>
@@ -1110,7 +1111,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1125,7 +1126,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8">
         <v>0</v>
@@ -1136,23 +1137,23 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1166,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1191,7 +1192,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1205,17 +1206,17 @@
       <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="18"/>
+      <c r="A27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
@@ -1223,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
@@ -1236,7 +1237,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="8"/>
     </row>
@@ -1247,41 +1248,41 @@
       <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="A34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -1289,25 +1290,25 @@
         <v>6</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -1315,30 +1316,30 @@
         <v>12</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="G37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
